--- a/ANGLE/1.xlsx
+++ b/ANGLE/1.xlsx
@@ -1527,103 +1527,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1639,7 +1550,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1653,6 +1564,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,11 +1593,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1677,8 +1616,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,7 +1698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,31 +1740,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,67 +1794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1830,13 +1818,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,25 +1866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,6 +1893,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1907,17 +1948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1940,47 +1981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1997,10 +1997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2009,144 +2009,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -5519,412 +5518,412 @@
       <c r="B500" s="1"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ANGLE/1.xlsx
+++ b/ANGLE/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="13545" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1526,15 +1526,134 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1548,38 +1667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1594,99 +1683,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1698,7 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,13 +1710,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,7 +1758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,19 +1776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,7 +1812,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,91 +1872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,21 +1889,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1922,13 +1907,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,17 +1937,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,17 +1973,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1997,10 +1997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2009,136 +2009,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/ANGLE/1.xlsx
+++ b/ANGLE/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -966,7 +966,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,8 +979,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,112 +1093,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,19 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1145,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,31 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,49 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,37 +1271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,39 +1310,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1366,8 +1342,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,26 +1374,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,10 +1414,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,16 +1426,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,118 +1444,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,7 +1939,7 @@
   <sheetPr/>
   <dimension ref="A1:A18044"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/ANGLE/1.xlsx
+++ b/ANGLE/1.xlsx
@@ -1235,10 +1235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1254,6 +1254,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1263,7 +1309,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,7 +1330,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,7 +1366,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,94 +1388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,73 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,31 +1424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,7 +1454,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,55 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,6 +1603,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1638,6 +1647,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1650,32 +1668,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,11 +1689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1711,10 +1711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1723,136 +1723,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
